--- a/data/trans_orig/P05A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{898C9A2B-A397-4A64-AB57-0C6194D116EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{159711BF-03D3-46E6-B7AF-A0E2EC3A7540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A2B9BC3-3BBA-4530-95D1-F243073E8430}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43D6068C-73C4-440C-AA2A-3C9F58B72802}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="703">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>81,11%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>79,05%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1966 +137,2017 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E73BB9-9C54-4E5D-8027-DAC263C021D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4006879D-1A82-4732-9A1A-F89A99AB86A1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2904,13 +2955,13 @@
         <v>133936</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>254</v>
@@ -2919,13 +2970,13 @@
         <v>268746</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2991,13 @@
         <v>18591</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2955,13 +3006,13 @@
         <v>33245</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -2970,13 +3021,13 @@
         <v>51835</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3083,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3044,13 +3095,13 @@
         <v>505924</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>473</v>
@@ -3059,28 +3110,28 @@
         <v>496628</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>959</v>
       </c>
       <c r="N12" s="7">
-        <v>1002552</v>
+        <v>1002551</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3146,13 @@
         <v>116109</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -3110,13 +3161,13 @@
         <v>136817</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3125,13 +3176,13 @@
         <v>252926</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3197,13 @@
         <v>14786</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -3161,13 +3212,13 @@
         <v>56299</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -3176,13 +3227,13 @@
         <v>71084</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,7 +3275,7 @@
         <v>1270</v>
       </c>
       <c r="N15" s="7">
-        <v>1326563</v>
+        <v>1326562</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3238,7 +3289,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3250,13 +3301,13 @@
         <v>409269</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -3265,13 +3316,13 @@
         <v>376864</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>750</v>
@@ -3280,13 +3331,13 @@
         <v>786132</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3352,13 @@
         <v>93135</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -3316,13 +3367,13 @@
         <v>108133</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -3331,13 +3382,13 @@
         <v>201268</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3403,13 @@
         <v>15834</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3367,13 +3418,13 @@
         <v>29670</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -3382,13 +3433,13 @@
         <v>45504</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3495,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3507,13 @@
         <v>284579</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>290</v>
@@ -3471,13 +3522,13 @@
         <v>295892</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>578</v>
@@ -3486,13 +3537,13 @@
         <v>580472</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3558,13 @@
         <v>83736</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3522,13 +3573,13 @@
         <v>77279</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -3537,13 +3588,13 @@
         <v>161015</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3609,13 @@
         <v>17551</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3573,13 +3624,13 @@
         <v>28754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3588,13 +3639,13 @@
         <v>46305</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3701,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3662,13 +3713,13 @@
         <v>380941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>498</v>
@@ -3677,13 +3728,13 @@
         <v>511786</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>894</v>
@@ -3692,13 +3743,13 @@
         <v>892727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3764,13 @@
         <v>107689</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -3728,13 +3779,13 @@
         <v>135571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>245</v>
@@ -3743,13 +3794,13 @@
         <v>243260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3815,13 @@
         <v>12968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -3779,13 +3830,13 @@
         <v>29485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -3794,13 +3845,13 @@
         <v>42453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3919,13 @@
         <v>2559705</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>2450</v>
@@ -3883,13 +3934,13 @@
         <v>2506759</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>4956</v>
@@ -3898,13 +3949,13 @@
         <v>5066464</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3970,13 @@
         <v>613206</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>658</v>
@@ -3934,13 +3985,13 @@
         <v>676981</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>1263</v>
@@ -3949,13 +4000,13 @@
         <v>1290188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +4021,13 @@
         <v>94679</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>183</v>
@@ -3985,13 +4036,13 @@
         <v>189555</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
@@ -4000,13 +4051,13 @@
         <v>284234</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4113,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858956C5-6453-4C5B-8957-58DE28C2C324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB3FDF1-D92F-441F-9C54-0DD453FD8FEB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,7 +4152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4208,13 +4259,13 @@
         <v>387865</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>363</v>
@@ -4223,13 +4274,13 @@
         <v>369005</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>743</v>
@@ -4238,13 +4289,13 @@
         <v>756870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4310,13 @@
         <v>63387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -4274,13 +4325,13 @@
         <v>52132</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -4289,13 +4340,13 @@
         <v>115520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4361,13 @@
         <v>1942</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4325,13 +4376,13 @@
         <v>8079</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4340,13 +4391,13 @@
         <v>10021</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4465,13 @@
         <v>593693</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -4429,13 +4480,13 @@
         <v>507084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>1052</v>
@@ -4444,13 +4495,13 @@
         <v>1100777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4516,13 @@
         <v>72465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -4480,13 +4531,13 @@
         <v>77475</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -4495,13 +4546,13 @@
         <v>149940</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,10 +4570,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4531,13 +4582,13 @@
         <v>24662</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4546,13 +4597,13 @@
         <v>44048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4659,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4620,13 +4671,13 @@
         <v>571197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>539</v>
@@ -4635,13 +4686,13 @@
         <v>572151</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>1083</v>
@@ -4650,13 +4701,13 @@
         <v>1143349</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4722,13 @@
         <v>87278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -4686,13 +4737,13 @@
         <v>107770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -4701,13 +4752,13 @@
         <v>195048</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4773,13 @@
         <v>18711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4737,13 +4788,13 @@
         <v>27207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4752,13 +4803,13 @@
         <v>45919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4826,13 +4877,13 @@
         <v>505697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>437</v>
@@ -4841,13 +4892,13 @@
         <v>500035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>893</v>
@@ -4856,13 +4907,13 @@
         <v>1005732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4928,13 @@
         <v>85947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -4892,13 +4943,13 @@
         <v>83509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -4907,13 +4958,13 @@
         <v>169456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4979,13 @@
         <v>21949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -4943,13 +4994,13 @@
         <v>29622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -4958,13 +5009,13 @@
         <v>51571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,7 +5071,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5032,13 +5083,13 @@
         <v>372070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>342</v>
@@ -5047,28 +5098,28 @@
         <v>375443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>683</v>
       </c>
       <c r="N20" s="7">
-        <v>747513</v>
+        <v>747514</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5134,13 @@
         <v>49138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -5098,13 +5149,13 @@
         <v>56728</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -5113,13 +5164,13 @@
         <v>105866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5185,13 @@
         <v>8221</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5149,13 +5200,13 @@
         <v>13572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -5164,13 +5215,13 @@
         <v>21792</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5263,7 @@
         <v>797</v>
       </c>
       <c r="N23" s="7">
-        <v>875171</v>
+        <v>875172</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5226,7 +5277,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5238,13 +5289,13 @@
         <v>465135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>587</v>
@@ -5253,13 +5304,13 @@
         <v>630662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>1008</v>
@@ -5268,13 +5319,13 @@
         <v>1095795</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5340,13 @@
         <v>76292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -5304,13 +5355,13 @@
         <v>91745</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -5319,13 +5370,13 @@
         <v>168037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5391,13 @@
         <v>15994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -5355,13 +5406,13 @@
         <v>19612</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -5370,13 +5421,13 @@
         <v>35606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5495,13 @@
         <v>2895656</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H28" s="7">
         <v>2742</v>
@@ -5459,28 +5510,28 @@
         <v>2954380</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>5462</v>
       </c>
       <c r="N28" s="7">
-        <v>5850037</v>
+        <v>5850036</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5546,13 @@
         <v>434507</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>369</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>435</v>
@@ -5510,13 +5561,13 @@
         <v>469358</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M29" s="7">
         <v>834</v>
@@ -5525,13 +5576,13 @@
         <v>903866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>221</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5597,13 @@
         <v>86202</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -5561,13 +5612,13 @@
         <v>122754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M30" s="7">
         <v>193</v>
@@ -5576,13 +5627,13 @@
         <v>208956</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5675,7 @@
         <v>6489</v>
       </c>
       <c r="N31" s="7">
-        <v>6962859</v>
+        <v>6962858</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -5638,7 +5689,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E054201-F3FE-4D76-90B8-E26F09489F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820FCF5F-0A26-4F55-A025-93F906EE72BE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5677,7 +5728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5784,13 +5835,13 @@
         <v>373100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>350</v>
@@ -5799,13 +5850,13 @@
         <v>340546</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>701</v>
@@ -5814,13 +5865,13 @@
         <v>713646</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5886,13 @@
         <v>33164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -5850,13 +5901,13 @@
         <v>43455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -5865,13 +5916,13 @@
         <v>76619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5937,13 @@
         <v>13199</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>356</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5901,13 +5952,13 @@
         <v>10759</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -5916,13 +5967,13 @@
         <v>23958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6041,13 @@
         <v>513575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>498</v>
@@ -6005,13 +6056,13 @@
         <v>483541</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>991</v>
@@ -6020,13 +6071,13 @@
         <v>997116</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6092,13 @@
         <v>61737</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -6056,13 +6107,13 @@
         <v>60423</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>420</v>
+        <v>294</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
@@ -6071,13 +6122,13 @@
         <v>122160</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6143,13 @@
         <v>13270</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -6107,13 +6158,13 @@
         <v>18595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -6122,13 +6173,13 @@
         <v>31865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6235,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6196,28 +6247,28 @@
         <v>584563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H12" s="7">
         <v>571</v>
       </c>
       <c r="I12" s="7">
-        <v>567926</v>
+        <v>567925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>238</v>
+        <v>434</v>
       </c>
       <c r="M12" s="7">
         <v>1131</v>
@@ -6226,13 +6277,13 @@
         <v>1152488</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,28 +6298,28 @@
         <v>64533</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
       </c>
       <c r="I13" s="7">
-        <v>72699</v>
+        <v>72698</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -6277,13 +6328,13 @@
         <v>137232</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6349,13 @@
         <v>18979</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -6313,13 +6364,13 @@
         <v>17726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -6328,13 +6379,13 @@
         <v>36705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,7 +6412,7 @@
         <v>662</v>
       </c>
       <c r="I15" s="7">
-        <v>658350</v>
+        <v>658349</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6390,7 +6441,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6402,13 +6453,13 @@
         <v>565904</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>518</v>
@@ -6417,13 +6468,13 @@
         <v>559003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>1028</v>
@@ -6432,13 +6483,13 @@
         <v>1124907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6504,7 @@
         <v>64691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>461</v>
@@ -6468,13 +6519,13 @@
         <v>63946</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -6483,13 +6534,13 @@
         <v>128636</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6555,13 @@
         <v>10247</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -6519,13 +6570,13 @@
         <v>23072</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -6534,13 +6585,13 @@
         <v>33318</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,7 +6647,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6608,13 +6659,13 @@
         <v>407589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>367</v>
@@ -6623,13 +6674,13 @@
         <v>419756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>728</v>
@@ -6638,13 +6689,13 @@
         <v>827345</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6710,13 @@
         <v>54266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -6674,13 +6725,13 @@
         <v>56367</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>489</v>
+        <v>323</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -6689,13 +6740,13 @@
         <v>110633</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6761,13 @@
         <v>14987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6725,13 +6776,13 @@
         <v>19567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -6740,13 +6791,13 @@
         <v>34553</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,7 +6853,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6814,13 +6865,13 @@
         <v>524047</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>567</v>
@@ -6829,13 +6880,13 @@
         <v>674063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>1121</v>
@@ -6844,13 +6895,13 @@
         <v>1198110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>506</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6916,13 @@
         <v>58588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -6880,13 +6931,13 @@
         <v>80318</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>247</v>
+        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6895,13 +6946,13 @@
         <v>138906</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6967,13 @@
         <v>8692</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>515</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>517</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6931,13 +6982,13 @@
         <v>16835</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -6946,13 +6997,13 @@
         <v>25527</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7071,13 @@
         <v>2968778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>523</v>
+        <v>231</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H28" s="7">
         <v>2871</v>
@@ -7035,13 +7086,13 @@
         <v>3044833</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M28" s="7">
         <v>5700</v>
@@ -7050,13 +7101,13 @@
         <v>6013611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>244</v>
+        <v>525</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7122,13 @@
         <v>336980</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H29" s="7">
         <v>355</v>
@@ -7086,13 +7137,13 @@
         <v>377207</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M29" s="7">
         <v>675</v>
@@ -7101,13 +7152,13 @@
         <v>714186</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>538</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7173,13 @@
         <v>79374</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="H30" s="7">
         <v>98</v>
@@ -7137,13 +7188,13 @@
         <v>106552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>334</v>
+        <v>540</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>424</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -7152,13 +7203,13 @@
         <v>185926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>144</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>539</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>308</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,7 +7265,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7236,7 +7287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9D538F-DCD4-411F-9E8F-AC25F05424DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDEBE-6468-4654-9C1B-811BB7DE49A0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7253,7 +7304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7360,13 +7411,13 @@
         <v>346012</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -7375,13 +7426,13 @@
         <v>306870</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -7390,13 +7441,13 @@
         <v>652882</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7462,13 @@
         <v>24516</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -7426,10 +7477,10 @@
         <v>36899</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>557</v>
@@ -7441,13 +7492,13 @@
         <v>61414</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7513,13 @@
         <v>7151</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>561</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -7477,13 +7528,13 @@
         <v>11188</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -7492,13 +7543,13 @@
         <v>18339</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7617,13 @@
         <v>385593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -7581,13 +7632,13 @@
         <v>467042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -7596,13 +7647,13 @@
         <v>852635</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7668,13 @@
         <v>28844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -7632,13 +7683,13 @@
         <v>27863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
@@ -7647,13 +7698,13 @@
         <v>56707</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7719,13 @@
         <v>13959</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>583</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>587</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -7683,13 +7734,13 @@
         <v>4310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>587</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7698,13 +7749,13 @@
         <v>18269</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>583</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,7 +7811,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7772,13 +7823,13 @@
         <v>498907</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H12" s="7">
         <v>761</v>
@@ -7787,13 +7838,13 @@
         <v>546846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>316</v>
+        <v>596</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="M12" s="7">
         <v>1250</v>
@@ -7802,13 +7853,13 @@
         <v>1045753</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7874,13 @@
         <v>45456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -7838,13 +7889,13 @@
         <v>42258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -7853,13 +7904,13 @@
         <v>87714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7925,13 @@
         <v>11520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>607</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -7889,13 +7940,13 @@
         <v>20565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -7904,13 +7955,13 @@
         <v>32085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,7 +8017,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7978,13 +8029,13 @@
         <v>660305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>609</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H16" s="7">
         <v>1007</v>
@@ -7993,13 +8044,13 @@
         <v>665248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="M16" s="7">
         <v>1611</v>
@@ -8008,13 +8059,13 @@
         <v>1325554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>621</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8080,13 @@
         <v>44896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>624</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -8044,13 +8095,13 @@
         <v>60166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -8059,13 +8110,13 @@
         <v>105063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8131,13 @@
         <v>17592</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>631</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>632</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -8095,13 +8146,13 @@
         <v>19701</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>634</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -8110,13 +8161,13 @@
         <v>37293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,7 +8223,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8184,13 +8235,13 @@
         <v>548615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>627</v>
+        <v>458</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="H20" s="7">
         <v>879</v>
@@ -8199,13 +8250,13 @@
         <v>523356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>642</v>
       </c>
       <c r="M20" s="7">
         <v>1487</v>
@@ -8214,13 +8265,13 @@
         <v>1071971</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8286,13 @@
         <v>42687</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -8250,13 +8301,13 @@
         <v>58026</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="M21" s="7">
         <v>144</v>
@@ -8265,13 +8316,13 @@
         <v>100713</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,10 +8337,10 @@
         <v>8856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>34</v>
@@ -8301,13 +8352,13 @@
         <v>14353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>644</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -8316,13 +8367,13 @@
         <v>23208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>647</v>
+        <v>452</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,7 +8429,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8390,13 +8441,13 @@
         <v>642546</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="H24" s="7">
         <v>1575</v>
@@ -8405,13 +8456,13 @@
         <v>950981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="M24" s="7">
         <v>2523</v>
@@ -8420,13 +8471,13 @@
         <v>1593527</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,13 +8492,13 @@
         <v>43280</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>669</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -8456,13 +8507,13 @@
         <v>62588</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -8471,13 +8522,13 @@
         <v>105868</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>401</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,13 +8543,13 @@
         <v>11929</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>675</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -8507,13 +8558,13 @@
         <v>12437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -8522,13 +8573,13 @@
         <v>24366</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8596,13 +8647,13 @@
         <v>3081976</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>683</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="H28" s="7">
         <v>4829</v>
@@ -8611,13 +8662,13 @@
         <v>3460345</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="M28" s="7">
         <v>7906</v>
@@ -8626,13 +8677,13 @@
         <v>6542321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8647,13 +8698,13 @@
         <v>229679</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="H29" s="7">
         <v>418</v>
@@ -8662,13 +8713,13 @@
         <v>287799</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>419</v>
+        <v>695</v>
       </c>
       <c r="M29" s="7">
         <v>648</v>
@@ -8677,13 +8728,13 @@
         <v>517478</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8749,13 @@
         <v>71007</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -8713,13 +8764,13 @@
         <v>82554</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>493</v>
+        <v>700</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>659</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -8728,13 +8779,13 @@
         <v>153561</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>259</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8790,7 +8841,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{159711BF-03D3-46E6-B7AF-A0E2EC3A7540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3F6CE7-F264-4DC9-8FAE-08CBDE478DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43D6068C-73C4-440C-AA2A-3C9F58B72802}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3D41BA-23F8-49B2-B7D0-F46924605B42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="691">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>81,11%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>79,05%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1987 +137,1954 @@
     <t>3,05%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>91,11%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>7,51%</t>
@@ -2126,28 +2093,25 @@
     <t>6,66%</t>
   </si>
   <si>
-    <t>8,43%</t>
+    <t>8,45%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>2,51%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4006879D-1A82-4732-9A1A-F89A99AB86A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACEB428-A6BA-403D-B230-766565CD4C1A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2955,13 +2919,13 @@
         <v>133936</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>254</v>
@@ -2970,13 +2934,13 @@
         <v>268746</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2955,13 @@
         <v>18591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3006,13 +2970,13 @@
         <v>33245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -3021,13 +2985,13 @@
         <v>51835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3047,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3095,13 +3059,13 @@
         <v>505924</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>473</v>
@@ -3110,28 +3074,28 @@
         <v>496628</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>959</v>
       </c>
       <c r="N12" s="7">
-        <v>1002551</v>
+        <v>1002552</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3110,13 @@
         <v>116109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -3161,13 +3125,13 @@
         <v>136817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -3176,13 +3140,13 @@
         <v>252926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3161,13 @@
         <v>14786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -3212,13 +3176,13 @@
         <v>56299</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -3227,13 +3191,13 @@
         <v>71084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,7 +3239,7 @@
         <v>1270</v>
       </c>
       <c r="N15" s="7">
-        <v>1326562</v>
+        <v>1326563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3289,7 +3253,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3301,13 +3265,13 @@
         <v>409269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -3316,13 +3280,13 @@
         <v>376864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>750</v>
@@ -3331,13 +3295,13 @@
         <v>786132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3316,13 @@
         <v>93135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -3367,13 +3331,13 @@
         <v>108133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -3382,13 +3346,13 @@
         <v>201268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3367,13 @@
         <v>15834</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -3418,13 +3382,13 @@
         <v>29670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -3433,13 +3397,13 @@
         <v>45504</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,7 +3459,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3507,13 +3471,13 @@
         <v>284579</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>290</v>
@@ -3522,13 +3486,13 @@
         <v>295892</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>578</v>
@@ -3537,13 +3501,13 @@
         <v>580472</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3522,13 @@
         <v>83736</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3573,13 +3537,13 @@
         <v>77279</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -3588,13 +3552,13 @@
         <v>161015</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3573,13 @@
         <v>17551</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3624,13 +3588,13 @@
         <v>28754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -3639,13 +3603,13 @@
         <v>46305</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3665,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3713,13 +3677,13 @@
         <v>380941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>498</v>
@@ -3728,13 +3692,13 @@
         <v>511786</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>894</v>
@@ -3743,13 +3707,13 @@
         <v>892727</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3728,13 @@
         <v>107689</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -3779,13 +3743,13 @@
         <v>135571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>245</v>
@@ -3794,13 +3758,13 @@
         <v>243260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3779,13 @@
         <v>12968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -3830,13 +3794,13 @@
         <v>29485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -3848,10 +3812,10 @@
         <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3883,13 @@
         <v>2559705</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>2450</v>
@@ -3934,13 +3898,13 @@
         <v>2506759</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>4956</v>
@@ -3949,13 +3913,13 @@
         <v>5066464</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3934,13 @@
         <v>613206</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>658</v>
@@ -3985,13 +3949,13 @@
         <v>676981</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>1263</v>
@@ -4000,13 +3964,13 @@
         <v>1290188</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +3985,13 @@
         <v>94679</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>183</v>
@@ -4036,13 +4000,13 @@
         <v>189555</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
@@ -4051,10 +4015,10 @@
         <v>284234</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>201</v>
@@ -4135,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB3FDF1-D92F-441F-9C54-0DD453FD8FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C128F-FBBE-4853-9715-C4AF6C59F8D1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4367,7 +4331,7 @@
         <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4376,13 +4340,13 @@
         <v>8079</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4391,13 +4355,13 @@
         <v>10021</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4429,13 @@
         <v>593693</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -4480,13 +4444,13 @@
         <v>507084</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>1052</v>
@@ -4495,13 +4459,13 @@
         <v>1100777</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4480,13 @@
         <v>72465</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -4531,13 +4495,13 @@
         <v>77475</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -4546,13 +4510,13 @@
         <v>149940</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,10 +4534,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4582,13 +4546,13 @@
         <v>24662</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4597,13 +4561,13 @@
         <v>44048</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4623,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4701,13 +4665,13 @@
         <v>1143349</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4686,13 @@
         <v>87278</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -4737,13 +4701,13 @@
         <v>107770</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -4752,13 +4716,13 @@
         <v>195048</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4737,13 @@
         <v>18711</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4788,13 +4752,13 @@
         <v>27207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4803,13 +4767,13 @@
         <v>45919</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4829,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4877,13 +4841,13 @@
         <v>505697</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>437</v>
@@ -4892,13 +4856,13 @@
         <v>500035</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>893</v>
@@ -4907,13 +4871,13 @@
         <v>1005732</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4892,13 @@
         <v>85947</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -4943,13 +4907,13 @@
         <v>83509</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -4958,13 +4922,13 @@
         <v>169456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4943,13 @@
         <v>21949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -4994,13 +4958,13 @@
         <v>29622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5009,13 +4973,13 @@
         <v>51571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,7 +5035,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5083,13 +5047,13 @@
         <v>372070</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>342</v>
@@ -5098,13 +5062,13 @@
         <v>375443</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>683</v>
@@ -5113,13 +5077,13 @@
         <v>747514</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5098,13 @@
         <v>49138</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -5149,13 +5113,13 @@
         <v>56728</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -5164,13 +5128,13 @@
         <v>105866</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5149,13 @@
         <v>8221</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5200,10 +5164,10 @@
         <v>13572</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>328</v>
@@ -5215,13 +5179,13 @@
         <v>21792</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,7 +5241,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5289,13 +5253,13 @@
         <v>465135</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>587</v>
@@ -5304,13 +5268,13 @@
         <v>630662</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>1008</v>
@@ -5319,13 +5283,13 @@
         <v>1095795</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5304,13 @@
         <v>76292</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -5355,13 +5319,13 @@
         <v>91745</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>153</v>
@@ -5370,13 +5334,13 @@
         <v>168037</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5355,13 @@
         <v>15994</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -5406,13 +5370,13 @@
         <v>19612</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -5421,13 +5385,13 @@
         <v>35606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5459,13 @@
         <v>2895656</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>263</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>2742</v>
@@ -5510,28 +5474,28 @@
         <v>2954380</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M28" s="7">
         <v>5462</v>
       </c>
       <c r="N28" s="7">
-        <v>5850036</v>
+        <v>5850037</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5510,13 @@
         <v>434507</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>435</v>
@@ -5561,13 +5525,13 @@
         <v>469358</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M29" s="7">
         <v>834</v>
@@ -5576,13 +5540,13 @@
         <v>903866</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5561,13 @@
         <v>86202</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -5612,13 +5576,13 @@
         <v>122754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>193</v>
@@ -5627,13 +5591,13 @@
         <v>208956</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>34</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,7 +5639,7 @@
         <v>6489</v>
       </c>
       <c r="N31" s="7">
-        <v>6962858</v>
+        <v>6962859</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -5711,7 +5675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820FCF5F-0A26-4F55-A025-93F906EE72BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33542950-841C-4BFF-8BF3-8F5BC05FABF1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5728,7 +5692,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5835,13 +5799,13 @@
         <v>373100</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>350</v>
@@ -5850,13 +5814,13 @@
         <v>340546</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>701</v>
@@ -5865,13 +5829,13 @@
         <v>713646</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5850,13 @@
         <v>33164</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -5901,13 +5865,13 @@
         <v>43455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -5916,13 +5880,13 @@
         <v>76619</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5901,13 @@
         <v>13199</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5952,10 +5916,10 @@
         <v>10759</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>401</v>
@@ -5970,10 +5934,10 @@
         <v>402</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>403</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6005,13 @@
         <v>513575</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>498</v>
@@ -6056,13 +6020,13 @@
         <v>483541</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M8" s="7">
         <v>991</v>
@@ -6071,13 +6035,13 @@
         <v>997116</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6056,13 @@
         <v>61737</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -6107,13 +6071,13 @@
         <v>60423</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
@@ -6122,13 +6086,13 @@
         <v>122160</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6107,13 @@
         <v>13270</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -6158,13 +6122,13 @@
         <v>18595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -6173,13 +6137,13 @@
         <v>31865</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,7 +6199,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6247,13 +6211,13 @@
         <v>584563</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H12" s="7">
         <v>571</v>
@@ -6262,13 +6226,13 @@
         <v>567925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>1131</v>
@@ -6277,13 +6241,13 @@
         <v>1152488</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6262,13 @@
         <v>64533</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -6313,13 +6277,13 @@
         <v>72698</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -6328,13 +6292,13 @@
         <v>137232</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6313,13 @@
         <v>18979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -6364,13 +6328,13 @@
         <v>17726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -6379,13 +6343,13 @@
         <v>36705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6405,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6453,13 +6417,13 @@
         <v>565904</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>518</v>
@@ -6468,13 +6432,13 @@
         <v>559003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>1028</v>
@@ -6483,13 +6447,13 @@
         <v>1124907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6468,13 @@
         <v>64691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -6519,13 +6483,13 @@
         <v>63946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -6534,13 +6498,13 @@
         <v>128636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6519,13 @@
         <v>10247</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>354</v>
+        <v>463</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -6570,13 +6534,13 @@
         <v>23072</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>467</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -6585,13 +6549,13 @@
         <v>33318</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,7 +6611,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6659,13 +6623,13 @@
         <v>407589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>367</v>
@@ -6674,13 +6638,13 @@
         <v>419756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>728</v>
@@ -6689,13 +6653,13 @@
         <v>827345</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6674,13 @@
         <v>54266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -6725,13 +6689,13 @@
         <v>56367</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>485</v>
+        <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>323</v>
+        <v>482</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -6740,13 +6704,13 @@
         <v>110633</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>487</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6725,13 @@
         <v>14987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6776,13 +6740,13 @@
         <v>19567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -6791,13 +6755,13 @@
         <v>34553</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,7 +6817,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6865,13 +6829,13 @@
         <v>524047</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>497</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H24" s="7">
         <v>567</v>
@@ -6880,13 +6844,13 @@
         <v>674063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M24" s="7">
         <v>1121</v>
@@ -6895,13 +6859,13 @@
         <v>1198110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>495</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6880,13 @@
         <v>58588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -6931,13 +6895,13 @@
         <v>80318</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6946,13 +6910,13 @@
         <v>138906</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6931,13 @@
         <v>8692</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>224</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>225</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -6982,13 +6946,13 @@
         <v>16835</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>510</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>516</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -6997,13 +6961,13 @@
         <v>25527</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7035,13 @@
         <v>2968778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>231</v>
+        <v>515</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H28" s="7">
         <v>2871</v>
@@ -7086,13 +7050,13 @@
         <v>3044833</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>524</v>
+        <v>336</v>
       </c>
       <c r="M28" s="7">
         <v>5700</v>
@@ -7101,13 +7065,13 @@
         <v>6013611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7086,13 @@
         <v>336980</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H29" s="7">
         <v>355</v>
@@ -7137,13 +7101,13 @@
         <v>377207</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>531</v>
+        <v>147</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M29" s="7">
         <v>675</v>
@@ -7152,13 +7116,13 @@
         <v>714186</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7137,13 @@
         <v>79374</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H30" s="7">
         <v>98</v>
@@ -7188,13 +7152,13 @@
         <v>106552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>540</v>
+        <v>278</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>424</v>
+        <v>534</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -7203,13 +7167,13 @@
         <v>185926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>251</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>535</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,7 +7251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BDEBE-6468-4654-9C1B-811BB7DE49A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2463E6-86F8-40FF-B264-39F42A856FDE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7304,7 +7268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7411,13 +7375,13 @@
         <v>346012</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -7426,13 +7390,13 @@
         <v>306870</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -7441,13 +7405,13 @@
         <v>652882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7426,13 @@
         <v>24516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -7477,13 +7441,13 @@
         <v>36899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -7492,13 +7456,13 @@
         <v>61414</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7477,13 @@
         <v>7151</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -7528,13 +7492,13 @@
         <v>11188</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -7543,13 +7507,13 @@
         <v>18339</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>566</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7581,13 @@
         <v>385593</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -7632,13 +7596,13 @@
         <v>467042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -7647,13 +7611,13 @@
         <v>852635</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7632,13 @@
         <v>28844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -7683,13 +7647,13 @@
         <v>27863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
@@ -7698,13 +7662,13 @@
         <v>56707</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>584</v>
+        <v>252</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7683,13 @@
         <v>13959</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>579</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -7734,13 +7698,13 @@
         <v>4310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7749,13 +7713,13 @@
         <v>18269</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>584</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,7 +7775,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7823,13 +7787,13 @@
         <v>498907</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H12" s="7">
         <v>761</v>
@@ -7838,13 +7802,13 @@
         <v>546846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M12" s="7">
         <v>1250</v>
@@ -7853,13 +7817,13 @@
         <v>1045753</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7838,13 @@
         <v>45456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -7889,13 +7853,13 @@
         <v>42258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -7904,13 +7868,13 @@
         <v>87714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>601</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>588</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7889,13 @@
         <v>11520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>609</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -7940,13 +7904,13 @@
         <v>20565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>606</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>611</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -7955,13 +7919,13 @@
         <v>32085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>612</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>614</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,7 +7981,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8029,13 +7993,13 @@
         <v>660305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>608</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="H16" s="7">
         <v>1007</v>
@@ -8044,13 +8008,13 @@
         <v>665248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="M16" s="7">
         <v>1611</v>
@@ -8059,13 +8023,13 @@
         <v>1325554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8044,13 @@
         <v>44896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>624</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>617</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -8095,13 +8059,13 @@
         <v>60166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -8110,13 +8074,13 @@
         <v>105063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>622</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8095,13 @@
         <v>17592</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>631</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>632</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -8146,13 +8110,13 @@
         <v>19701</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>633</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -8161,13 +8125,13 @@
         <v>37293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>636</v>
+        <v>511</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>637</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,7 +8187,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8235,13 +8199,13 @@
         <v>548615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>458</v>
+        <v>628</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="H20" s="7">
         <v>879</v>
@@ -8250,13 +8214,13 @@
         <v>523356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>640</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="M20" s="7">
         <v>1487</v>
@@ -8265,13 +8229,13 @@
         <v>1071971</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,13 +8250,13 @@
         <v>42687</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>647</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -8301,13 +8265,13 @@
         <v>58026</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="M21" s="7">
         <v>144</v>
@@ -8316,13 +8280,13 @@
         <v>100713</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8301,13 @@
         <v>8856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>34</v>
+        <v>645</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -8352,13 +8316,13 @@
         <v>14353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>646</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>657</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -8367,13 +8331,13 @@
         <v>23208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>648</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,7 +8393,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8438,16 +8402,16 @@
         <v>948</v>
       </c>
       <c r="D24" s="7">
-        <v>642546</v>
+        <v>642545</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="H24" s="7">
         <v>1575</v>
@@ -8456,13 +8420,13 @@
         <v>950981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="M24" s="7">
         <v>2523</v>
@@ -8471,13 +8435,13 @@
         <v>1593527</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,13 +8456,13 @@
         <v>43280</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>668</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -8507,13 +8471,13 @@
         <v>62588</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>672</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -8522,13 +8486,13 @@
         <v>105868</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,13 +8507,13 @@
         <v>11929</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>675</v>
+        <v>248</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>645</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -8558,13 +8522,13 @@
         <v>12437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>677</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -8573,13 +8537,13 @@
         <v>24366</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>230</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,7 +8555,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8647,13 +8611,13 @@
         <v>3081976</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="H28" s="7">
         <v>4829</v>
@@ -8662,13 +8626,13 @@
         <v>3460345</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="M28" s="7">
         <v>7906</v>
@@ -8677,13 +8641,13 @@
         <v>6542321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8662,13 @@
         <v>229679</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>602</v>
+        <v>680</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="H29" s="7">
         <v>418</v>
@@ -8713,13 +8677,13 @@
         <v>287799</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="M29" s="7">
         <v>648</v>
@@ -8728,13 +8692,13 @@
         <v>517478</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>552</v>
+        <v>686</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>697</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8713,13 @@
         <v>71007</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>698</v>
+        <v>424</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>656</v>
+        <v>580</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>356</v>
+        <v>687</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -8764,13 +8728,13 @@
         <v>82554</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>699</v>
+        <v>467</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>700</v>
+        <v>468</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>659</v>
+        <v>251</v>
       </c>
       <c r="M30" s="7">
         <v>179</v>
@@ -8779,13 +8743,13 @@
         <v>153561</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>537</v>
+        <v>689</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P05A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3F6CE7-F264-4DC9-8FAE-08CBDE478DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF69F95A-8191-4E49-94E0-0651416B8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3D41BA-23F8-49B2-B7D0-F46924605B42}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{65DEB339-6B75-4A22-8AC3-CD83B07F8512}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="776">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>79,12%</t>
@@ -245,7 +245,7 @@
     <t>5,03%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>79,45%</t>
@@ -329,7 +329,7 @@
     <t>6,64%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>78,97%</t>
@@ -413,7 +413,7 @@
     <t>5,89%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>73,75%</t>
@@ -494,1624 +494,1879 @@
     <t>7,68%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
 </sst>
 </file>
@@ -2523,8 +2778,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACEB428-A6BA-403D-B230-766565CD4C1A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A55E49-6A12-450C-A1DE-3AA3C059E450}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3671,10 +3926,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>396</v>
+        <v>230</v>
       </c>
       <c r="D24" s="7">
-        <v>380941</v>
+        <v>221805</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>152</v>
@@ -3686,10 +3941,10 @@
         <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>498</v>
+        <v>270</v>
       </c>
       <c r="I24" s="7">
-        <v>511786</v>
+        <v>249598</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>155</v>
@@ -3701,10 +3956,10 @@
         <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>894</v>
+        <v>500</v>
       </c>
       <c r="N24" s="7">
-        <v>892727</v>
+        <v>471402</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>158</v>
@@ -3722,10 +3977,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7">
-        <v>107689</v>
+        <v>62145</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>161</v>
@@ -3737,34 +3992,34 @@
         <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="I25" s="7">
-        <v>135571</v>
+        <v>73383</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>143</v>
+      </c>
+      <c r="N25" s="7">
+        <v>135528</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M25" s="7">
-        <v>245</v>
-      </c>
-      <c r="N25" s="7">
-        <v>243260</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,25 +4028,25 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
-        <v>12968</v>
+        <v>8634</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H26" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I26" s="7">
-        <v>29485</v>
+        <v>19953</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>172</v>
@@ -3800,22 +4055,22 @@
         <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N26" s="7">
-        <v>42453</v>
+        <v>28587</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,10 +4079,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>522</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>501598</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3839,10 +4094,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3854,10 +4109,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1183</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1178440</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3871,55 +4126,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2506</v>
+        <v>166</v>
       </c>
       <c r="D28" s="7">
-        <v>2559705</v>
+        <v>159136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>2450</v>
+        <v>228</v>
       </c>
       <c r="I28" s="7">
-        <v>2506759</v>
+        <v>262189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
-        <v>4956</v>
+        <v>394</v>
       </c>
       <c r="N28" s="7">
-        <v>5066464</v>
+        <v>421325</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,49 +4183,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>605</v>
+        <v>48</v>
       </c>
       <c r="D29" s="7">
-        <v>613206</v>
+        <v>45545</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="I29" s="7">
-        <v>676981</v>
+        <v>62187</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>1263</v>
+        <v>102</v>
       </c>
       <c r="N29" s="7">
-        <v>1290188</v>
+        <v>107732</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,49 +4234,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>94679</v>
+        <v>4334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>189555</v>
+        <v>9532</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>284234</v>
+        <v>13866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,63 +4285,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>219</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209015</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>509</v>
+      </c>
+      <c r="N31" s="7">
+        <v>542923</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2506</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2559705</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2450</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2506759</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4956</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5066464</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>605</v>
+      </c>
+      <c r="D33" s="7">
+        <v>613206</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7">
+        <v>658</v>
+      </c>
+      <c r="I33" s="7">
+        <v>676981</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1263</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1290188</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>94</v>
+      </c>
+      <c r="D34" s="7">
+        <v>94679</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7">
+        <v>183</v>
+      </c>
+      <c r="I34" s="7">
+        <v>189555</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
+        <v>277</v>
+      </c>
+      <c r="N34" s="7">
+        <v>284234</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3205</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3267590</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3291</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3373295</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6496</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6640885</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4099,8 +4561,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153C128F-FBBE-4853-9715-C4AF6C59F8D1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E1768-C110-4311-8BB7-DC4D47E4BAD5}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4116,7 +4578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4223,13 +4685,13 @@
         <v>387865</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>363</v>
@@ -4238,13 +4700,13 @@
         <v>369005</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>743</v>
@@ -4253,13 +4715,13 @@
         <v>756870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4736,13 @@
         <v>63387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -4289,13 +4751,13 @@
         <v>52132</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -4304,13 +4766,13 @@
         <v>115520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,10 +4787,10 @@
         <v>1942</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>60</v>
@@ -4340,13 +4802,13 @@
         <v>8079</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4355,13 +4817,13 @@
         <v>10021</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4891,13 @@
         <v>593693</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -4444,13 +4906,13 @@
         <v>507084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>1052</v>
@@ -4459,13 +4921,13 @@
         <v>1100777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4942,13 @@
         <v>72465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -4495,13 +4957,13 @@
         <v>77475</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -4510,13 +4972,13 @@
         <v>149940</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,10 +4996,10 @@
         <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4546,13 +5008,13 @@
         <v>24662</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -4561,13 +5023,13 @@
         <v>44048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +5097,13 @@
         <v>571197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>539</v>
@@ -4650,13 +5112,13 @@
         <v>572151</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>1083</v>
@@ -4668,10 +5130,10 @@
         <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +5148,13 @@
         <v>87278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -4701,13 +5163,13 @@
         <v>107770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -4716,13 +5178,13 @@
         <v>195048</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,10 +5202,10 @@
         <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4752,13 +5214,13 @@
         <v>27207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -4767,13 +5229,13 @@
         <v>45919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +5303,13 @@
         <v>505697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>437</v>
@@ -4856,13 +5318,13 @@
         <v>500035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>893</v>
@@ -4871,13 +5333,13 @@
         <v>1005732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +5354,13 @@
         <v>85947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -4907,13 +5369,13 @@
         <v>83509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -4922,13 +5384,13 @@
         <v>169456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +5405,13 @@
         <v>21949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -4958,13 +5420,13 @@
         <v>29622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -4973,13 +5435,13 @@
         <v>51571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5509,13 @@
         <v>372070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>342</v>
@@ -5062,28 +5524,28 @@
         <v>375443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>683</v>
       </c>
       <c r="N20" s="7">
-        <v>747514</v>
+        <v>747513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5560,13 @@
         <v>49138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -5113,13 +5575,13 @@
         <v>56728</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -5128,13 +5590,13 @@
         <v>105866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5611,13 @@
         <v>8221</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5164,13 +5626,13 @@
         <v>13572</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -5179,13 +5641,13 @@
         <v>21792</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5689,7 @@
         <v>797</v>
       </c>
       <c r="N23" s="7">
-        <v>875172</v>
+        <v>875171</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5247,49 +5709,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>421</v>
+        <v>233</v>
       </c>
       <c r="D24" s="7">
-        <v>465135</v>
+        <v>253777</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="H24" s="7">
-        <v>587</v>
+        <v>284</v>
       </c>
       <c r="I24" s="7">
-        <v>630662</v>
+        <v>294071</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="M24" s="7">
-        <v>1008</v>
+        <v>517</v>
       </c>
       <c r="N24" s="7">
-        <v>1095795</v>
+        <v>547848</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,49 +5760,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>76292</v>
+        <v>46144</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I25" s="7">
-        <v>91745</v>
+        <v>46635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="N25" s="7">
-        <v>168037</v>
+        <v>92779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,49 +5811,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>15994</v>
+        <v>9865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="7">
-        <v>19612</v>
+        <v>12333</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N26" s="7">
-        <v>35606</v>
+        <v>22198</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,10 +5862,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>502</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>557421</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5415,10 +5877,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>742018</v>
+        <v>353039</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5430,10 +5892,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1195</v>
+        <v>625</v>
       </c>
       <c r="N27" s="7">
-        <v>1299438</v>
+        <v>662825</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5447,55 +5909,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2720</v>
+        <v>188</v>
       </c>
       <c r="D28" s="7">
-        <v>2895656</v>
+        <v>211358</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="H28" s="7">
-        <v>2742</v>
+        <v>303</v>
       </c>
       <c r="I28" s="7">
-        <v>2954380</v>
+        <v>336590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="M28" s="7">
-        <v>5462</v>
+        <v>491</v>
       </c>
       <c r="N28" s="7">
-        <v>5850037</v>
+        <v>547948</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,49 +5966,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7">
+        <v>30148</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H29" s="7">
+        <v>41</v>
+      </c>
+      <c r="I29" s="7">
+        <v>45110</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D29" s="7">
-        <v>434507</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H29" s="7">
-        <v>435</v>
-      </c>
-      <c r="I29" s="7">
-        <v>469358</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="M29" s="7">
-        <v>834</v>
+        <v>67</v>
       </c>
       <c r="N29" s="7">
-        <v>903866</v>
+        <v>75258</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,49 +6017,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>86202</v>
+        <v>6129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="H30" s="7">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>122754</v>
+        <v>7279</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>406</v>
       </c>
       <c r="M30" s="7">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>208956</v>
+        <v>13408</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,63 +6068,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>247635</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>570</v>
+      </c>
+      <c r="N31" s="7">
+        <v>636614</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2720</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2895656</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2742</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2954380</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5462</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5850037</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>399</v>
+      </c>
+      <c r="D33" s="7">
+        <v>434507</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H33" s="7">
+        <v>435</v>
+      </c>
+      <c r="I33" s="7">
+        <v>469358</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M33" s="7">
+        <v>834</v>
+      </c>
+      <c r="N33" s="7">
+        <v>903866</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>82</v>
+      </c>
+      <c r="D34" s="7">
+        <v>86202</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H34" s="7">
+        <v>111</v>
+      </c>
+      <c r="I34" s="7">
+        <v>122754</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M34" s="7">
+        <v>193</v>
+      </c>
+      <c r="N34" s="7">
+        <v>208956</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3201</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3416366</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3288</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3546492</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6489</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6962859</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5675,8 +6344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33542950-841C-4BFF-8BF3-8F5BC05FABF1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3DC9DB-CB83-448D-8ACB-D485D6ACA109}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5692,7 +6361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5799,13 +6468,13 @@
         <v>373100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>350</v>
@@ -5814,13 +6483,13 @@
         <v>340546</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>701</v>
@@ -5829,13 +6498,13 @@
         <v>713646</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +6519,13 @@
         <v>33164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -5865,13 +6534,13 @@
         <v>43455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -5880,13 +6549,13 @@
         <v>76619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +6570,13 @@
         <v>13199</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -5916,13 +6585,13 @@
         <v>10759</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -5931,13 +6600,13 @@
         <v>23958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6674,13 @@
         <v>513575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="H8" s="7">
         <v>498</v>
@@ -6020,13 +6689,13 @@
         <v>483541</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="M8" s="7">
         <v>991</v>
@@ -6035,13 +6704,13 @@
         <v>997116</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6725,13 @@
         <v>61737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -6071,13 +6740,13 @@
         <v>60423</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
@@ -6089,10 +6758,10 @@
         <v>92</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6776,13 @@
         <v>13270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -6122,13 +6791,13 @@
         <v>18595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -6137,13 +6806,13 @@
         <v>31865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6880,13 @@
         <v>584563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="H12" s="7">
         <v>571</v>
@@ -6226,13 +6895,13 @@
         <v>567925</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="M12" s="7">
         <v>1131</v>
@@ -6241,13 +6910,13 @@
         <v>1152488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6931,13 @@
         <v>64533</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -6277,13 +6946,13 @@
         <v>72698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -6292,13 +6961,13 @@
         <v>137232</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6982,13 @@
         <v>18979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -6328,7 +6997,7 @@
         <v>17726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>60</v>
@@ -6343,13 +7012,13 @@
         <v>36705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +7086,13 @@
         <v>565904</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="H16" s="7">
         <v>518</v>
@@ -6432,13 +7101,13 @@
         <v>559003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7">
         <v>1028</v>
@@ -6447,13 +7116,13 @@
         <v>1124907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +7137,13 @@
         <v>64691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -6483,13 +7152,13 @@
         <v>63946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -6498,13 +7167,13 @@
         <v>128636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +7188,13 @@
         <v>10247</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -6534,10 +7203,10 @@
         <v>23072</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>93</v>
@@ -6549,13 +7218,13 @@
         <v>33318</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>521</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +7292,13 @@
         <v>407589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>367</v>
@@ -6638,13 +7307,13 @@
         <v>419756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>728</v>
@@ -6653,13 +7322,13 @@
         <v>827345</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +7343,13 @@
         <v>54266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -6689,13 +7358,13 @@
         <v>56367</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -6704,13 +7373,13 @@
         <v>110633</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +7394,13 @@
         <v>14987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6740,13 +7409,13 @@
         <v>19567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -6755,13 +7424,13 @@
         <v>34553</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,49 +7492,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>554</v>
+        <v>287</v>
       </c>
       <c r="D24" s="7">
-        <v>524047</v>
+        <v>296077</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>545</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="I24" s="7">
-        <v>674063</v>
+        <v>321263</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
-        <v>1121</v>
+        <v>588</v>
       </c>
       <c r="N24" s="7">
-        <v>1198110</v>
+        <v>617340</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>495</v>
+        <v>365</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,49 +7543,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>58588</v>
+        <v>33552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I25" s="7">
-        <v>80318</v>
+        <v>43418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>138906</v>
+        <v>76970</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,49 +7594,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>8692</v>
+        <v>4701</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>562</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7">
-        <v>16835</v>
+        <v>8972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>199</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>25527</v>
+        <v>13673</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>513</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,10 +7645,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6991,10 +7660,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>649</v>
+        <v>350</v>
       </c>
       <c r="I27" s="7">
-        <v>771215</v>
+        <v>373653</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -7006,10 +7675,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1276</v>
+        <v>675</v>
       </c>
       <c r="N27" s="7">
-        <v>1362543</v>
+        <v>707983</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7023,55 +7692,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2829</v>
+        <v>267</v>
       </c>
       <c r="D28" s="7">
-        <v>2968778</v>
+        <v>227970</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>516</v>
+        <v>569</v>
       </c>
       <c r="H28" s="7">
-        <v>2871</v>
+        <v>266</v>
       </c>
       <c r="I28" s="7">
-        <v>3044833</v>
+        <v>352799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>517</v>
+        <v>570</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>518</v>
+        <v>571</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>336</v>
+        <v>572</v>
       </c>
       <c r="M28" s="7">
-        <v>5700</v>
+        <v>533</v>
       </c>
       <c r="N28" s="7">
-        <v>6013611</v>
+        <v>580770</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>519</v>
+        <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,49 +7749,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="D29" s="7">
-        <v>336980</v>
+        <v>25036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="H29" s="7">
-        <v>355</v>
+        <v>27</v>
       </c>
       <c r="I29" s="7">
-        <v>377207</v>
+        <v>36900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>578</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>526</v>
+        <v>580</v>
       </c>
       <c r="M29" s="7">
-        <v>675</v>
+        <v>57</v>
       </c>
       <c r="N29" s="7">
-        <v>714186</v>
+        <v>61937</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>527</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,49 +7800,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>79374</v>
+        <v>3991</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>532</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>106552</v>
+        <v>7862</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>533</v>
+        <v>257</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>278</v>
+        <v>585</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>534</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="N30" s="7">
-        <v>185926</v>
+        <v>11854</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,63 +7851,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>299</v>
+      </c>
+      <c r="I31" s="7">
+        <v>397562</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>601</v>
+      </c>
+      <c r="N31" s="7">
+        <v>654560</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2829</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2968778</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2871</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3044833</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5700</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6013611</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>320</v>
+      </c>
+      <c r="D33" s="7">
+        <v>336980</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H33" s="7">
+        <v>355</v>
+      </c>
+      <c r="I33" s="7">
+        <v>377207</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M33" s="7">
+        <v>675</v>
+      </c>
+      <c r="N33" s="7">
+        <v>714186</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>74</v>
+      </c>
+      <c r="D34" s="7">
+        <v>79374</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="H34" s="7">
+        <v>98</v>
+      </c>
+      <c r="I34" s="7">
+        <v>106552</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="M34" s="7">
+        <v>172</v>
+      </c>
+      <c r="N34" s="7">
+        <v>185926</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3223</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3385132</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3324</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3528592</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6547</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6913724</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7251,8 +8127,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2463E6-86F8-40FF-B264-39F42A856FDE}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C0A371-47D0-4FBD-A6B1-9B39D2377E6E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7268,7 +8144,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7372,46 +8248,46 @@
         <v>159</v>
       </c>
       <c r="D4" s="7">
-        <v>346012</v>
+        <v>367470</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>540</v>
+        <v>614</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
       </c>
       <c r="I4" s="7">
-        <v>306870</v>
+        <v>267667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>541</v>
+        <v>615</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>542</v>
+        <v>616</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>543</v>
+        <v>617</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
       </c>
       <c r="N4" s="7">
-        <v>652882</v>
+        <v>635137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>546</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,46 +8299,46 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>24516</v>
+        <v>24762</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>547</v>
+        <v>621</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>549</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>36899</v>
+        <v>35258</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>550</v>
+        <v>622</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>61414</v>
+        <v>60019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>553</v>
+        <v>625</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,46 +8350,46 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>7151</v>
+        <v>7755</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>11188</v>
+        <v>10276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>396</v>
+        <v>630</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>18339</v>
+        <v>18031</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,7 +8401,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7540,7 +8416,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7555,7 +8431,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7578,46 +8454,46 @@
         <v>269</v>
       </c>
       <c r="D8" s="7">
-        <v>385593</v>
+        <v>381727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>563</v>
+        <v>635</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
       </c>
       <c r="I8" s="7">
-        <v>467042</v>
+        <v>483123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
       </c>
       <c r="N8" s="7">
-        <v>852635</v>
+        <v>864850</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>569</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,46 +8505,46 @@
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>28844</v>
+        <v>28281</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>572</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>27863</v>
+        <v>25025</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
       </c>
       <c r="N9" s="7">
-        <v>56707</v>
+        <v>53307</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>252</v>
+        <v>647</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,46 +8556,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>13959</v>
+        <v>13538</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4310</v>
+        <v>3945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>586</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>18269</v>
+        <v>17483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>584</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +8607,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7746,7 +8622,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7761,7 +8637,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7784,46 +8660,46 @@
         <v>489</v>
       </c>
       <c r="D12" s="7">
-        <v>498907</v>
+        <v>480390</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="H12" s="7">
         <v>761</v>
       </c>
       <c r="I12" s="7">
-        <v>546846</v>
+        <v>533599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="M12" s="7">
         <v>1250</v>
       </c>
       <c r="N12" s="7">
-        <v>1045753</v>
+        <v>1013989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,46 +8711,46 @@
         <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>45456</v>
+        <v>43123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>42258</v>
+        <v>38693</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>600</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
       </c>
       <c r="N13" s="7">
-        <v>87714</v>
+        <v>81816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>651</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,46 +8762,46 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>11520</v>
+        <v>11477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>674</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>20565</v>
+        <v>18980</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>677</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
       </c>
       <c r="N14" s="7">
-        <v>32085</v>
+        <v>30457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>678</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>584</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,7 +8813,7 @@
         <v>543</v>
       </c>
       <c r="D15" s="7">
-        <v>555883</v>
+        <v>534990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7952,7 +8828,7 @@
         <v>847</v>
       </c>
       <c r="I15" s="7">
-        <v>609669</v>
+        <v>591272</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7967,7 +8843,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1165552</v>
+        <v>1126263</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7990,46 +8866,46 @@
         <v>604</v>
       </c>
       <c r="D16" s="7">
-        <v>660305</v>
+        <v>827242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="H16" s="7">
         <v>1007</v>
       </c>
       <c r="I16" s="7">
-        <v>665248</v>
+        <v>637197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="M16" s="7">
         <v>1611</v>
       </c>
       <c r="N16" s="7">
-        <v>1325554</v>
+        <v>1464437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,46 +8917,46 @@
         <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>44896</v>
+        <v>42668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>616</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>689</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
       </c>
       <c r="I17" s="7">
-        <v>60166</v>
+        <v>55307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>620</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
       </c>
       <c r="N17" s="7">
-        <v>105063</v>
+        <v>97975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,46 +8968,46 @@
         <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>17592</v>
+        <v>16766</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>400</v>
+        <v>697</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>449</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>19701</v>
+        <v>18376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>351</v>
+        <v>698</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>699</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
       </c>
       <c r="N18" s="7">
-        <v>37293</v>
+        <v>35142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>626</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>511</v>
+        <v>701</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8143,7 +9019,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>722793</v>
+        <v>886676</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8158,7 +9034,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>745116</v>
+        <v>710879</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8173,7 +9049,7 @@
         <v>1803</v>
       </c>
       <c r="N19" s="7">
-        <v>1467910</v>
+        <v>1597554</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8196,46 +9072,46 @@
         <v>608</v>
       </c>
       <c r="D20" s="7">
-        <v>548615</v>
+        <v>512941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>628</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="H20" s="7">
         <v>879</v>
       </c>
       <c r="I20" s="7">
-        <v>523356</v>
+        <v>480427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>704</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>631</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>1487</v>
       </c>
       <c r="N20" s="7">
-        <v>1071971</v>
+        <v>993368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,46 +9123,46 @@
         <v>46</v>
       </c>
       <c r="D21" s="7">
-        <v>42687</v>
+        <v>40070</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>635</v>
+        <v>330</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>318</v>
+        <v>710</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
       </c>
       <c r="I21" s="7">
-        <v>58026</v>
+        <v>53095</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="M21" s="7">
         <v>144</v>
       </c>
       <c r="N21" s="7">
-        <v>100713</v>
+        <v>93165</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,46 +9174,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>8856</v>
+        <v>8223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>644</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
       </c>
       <c r="I22" s="7">
-        <v>14353</v>
+        <v>13151</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>23208</v>
+        <v>21374</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>648</v>
+        <v>565</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>649</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8349,7 +9225,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8364,7 +9240,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595735</v>
+        <v>546673</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8379,7 +9255,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1195892</v>
+        <v>1107907</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8399,49 +9275,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>948</v>
+        <v>524</v>
       </c>
       <c r="D24" s="7">
-        <v>642545</v>
+        <v>337875</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="H24" s="7">
-        <v>1575</v>
+        <v>757</v>
       </c>
       <c r="I24" s="7">
-        <v>950981</v>
+        <v>573958</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>634</v>
+        <v>725</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>655</v>
+        <v>726</v>
       </c>
       <c r="M24" s="7">
-        <v>2523</v>
+        <v>1281</v>
       </c>
       <c r="N24" s="7">
-        <v>1593527</v>
+        <v>911833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>658</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,49 +9326,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>43280</v>
+        <v>23993</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>659</v>
+        <v>730</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>731</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>660</v>
+        <v>732</v>
       </c>
       <c r="H25" s="7">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7">
-        <v>62588</v>
+        <v>28234</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>661</v>
+        <v>733</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>662</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>734</v>
       </c>
       <c r="M25" s="7">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="N25" s="7">
-        <v>105868</v>
+        <v>52226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>663</v>
+        <v>735</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>201</v>
+        <v>736</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>641</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,49 +9377,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
-        <v>11929</v>
+        <v>6297</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>664</v>
+        <v>196</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>645</v>
+        <v>738</v>
       </c>
       <c r="H26" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>12437</v>
+        <v>5593</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>665</v>
+        <v>739</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>666</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N26" s="7">
-        <v>24366</v>
+        <v>11891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>667</v>
+        <v>740</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>668</v>
+        <v>562</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>669</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,10 +9428,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8567,10 +9443,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1026006</v>
+        <v>607785</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8582,10 +9458,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2735</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1723761</v>
+        <v>975950</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8599,55 +9475,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3077</v>
+        <v>424</v>
       </c>
       <c r="D28" s="7">
-        <v>3081976</v>
+        <v>261374</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>670</v>
+        <v>741</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>671</v>
+        <v>742</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>672</v>
+        <v>743</v>
       </c>
       <c r="H28" s="7">
-        <v>4829</v>
+        <v>818</v>
       </c>
       <c r="I28" s="7">
-        <v>3460345</v>
+        <v>393377</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>673</v>
+        <v>744</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>674</v>
+        <v>745</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>675</v>
+        <v>746</v>
       </c>
       <c r="M28" s="7">
-        <v>7906</v>
+        <v>1242</v>
       </c>
       <c r="N28" s="7">
-        <v>6542321</v>
+        <v>654750</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>676</v>
+        <v>747</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>677</v>
+        <v>748</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>678</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,49 +9532,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7">
-        <v>229679</v>
+        <v>16595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>679</v>
+        <v>750</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>680</v>
+        <v>61</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>681</v>
+        <v>494</v>
       </c>
       <c r="H29" s="7">
-        <v>418</v>
+        <v>52</v>
       </c>
       <c r="I29" s="7">
-        <v>287799</v>
+        <v>26837</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>683</v>
+        <v>752</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>684</v>
+        <v>268</v>
       </c>
       <c r="M29" s="7">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="N29" s="7">
-        <v>517478</v>
+        <v>43433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>686</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>499</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,49 +9583,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>71007</v>
+        <v>4790</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>424</v>
+        <v>754</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>580</v>
+        <v>755</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>687</v>
+        <v>542</v>
       </c>
       <c r="H30" s="7">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="I30" s="7">
-        <v>82554</v>
+        <v>5617</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>467</v>
+        <v>756</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>468</v>
+        <v>757</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>251</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="N30" s="7">
-        <v>153561</v>
+        <v>10407</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>689</v>
+        <v>758</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>690</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8758,63 +9634,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3077</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3169019</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4829</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3369346</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7906</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6538366</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>230</v>
+      </c>
+      <c r="D33" s="7">
+        <v>219493</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="H33" s="7">
+        <v>418</v>
+      </c>
+      <c r="I33" s="7">
+        <v>262448</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="M33" s="7">
+        <v>648</v>
+      </c>
+      <c r="N33" s="7">
+        <v>481941</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>65</v>
+      </c>
+      <c r="D34" s="7">
+        <v>68846</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="H34" s="7">
+        <v>114</v>
+      </c>
+      <c r="I34" s="7">
+        <v>75938</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>179</v>
+      </c>
+      <c r="N34" s="7">
+        <v>144785</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3372</v>
       </c>
-      <c r="D31" s="7">
-        <v>3382662</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3457358</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5361</v>
       </c>
-      <c r="I31" s="7">
-        <v>3830698</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3707732</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8733</v>
       </c>
-      <c r="N31" s="7">
-        <v>7213360</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="N35" s="7">
+        <v>7165091</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
